--- a/csec/database/Info Tech data.xlsx
+++ b/csec/database/Info Tech data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -19,6 +19,72 @@
     <t>id</t>
   </si>
   <si>
+    <t>CSEC Information Technology January 2020 P032.pdf</t>
+  </si>
+  <si>
+    <t>1cjr-_J-at6KabIpyGPk13OO5Z8yCCEdE</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology June 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1hnP54Txn4Gz4OdG70aVcl4-8_s-updEZ</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology January 2023 P2.pdf</t>
+  </si>
+  <si>
+    <t>1u3yY3w6Da-pxfaCyum3xDNcilNDyYah9</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology January 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1bZA6RLlGIGn1ddPgyaQG9L4BJCYyEaL9</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology January 2021 P2.pdf</t>
+  </si>
+  <si>
+    <t>1xk0QZKX3QdX2L0U3mB1Aewg2alJcrris</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology January 2020 P2.pdf</t>
+  </si>
+  <si>
+    <t>1DXTr58S7QOJHj6WsNniYiIF6eFKUpHd1</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology January 2024 P2.pdf</t>
+  </si>
+  <si>
+    <t>1e_wMqPoXLhzGMXpYNW5_Ab-2Pfet7iRd</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology June 2022 P2.pdf</t>
+  </si>
+  <si>
+    <t>1GlzLVWAzFcVG_iytEsTH0cuZDrZCv_BE</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology January 2010 P1 Alternative.doc</t>
+  </si>
+  <si>
+    <t>1hQiOLqiuENtbdFnXTdI2FP5bNuzxJR3b</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology June 2018 P2.pdf</t>
+  </si>
+  <si>
+    <t>1KDxjXg_iT3HmjFca9d0evp2gyIEywby-</t>
+  </si>
+  <si>
+    <t>CSEC Information Technology June 2019 P2.pdf</t>
+  </si>
+  <si>
+    <t>13MEqF8GV-dyW-sS5Fa7k-orAcIa6oTFb</t>
+  </si>
+  <si>
     <t>CSEC Information Technology June 2020 P1.pdf</t>
   </si>
   <si>
@@ -53,24 +119,6 @@
   </si>
   <si>
     <t>1jeRBBq07GkvI6RZwjF__SXkXsa-t8zGl</t>
-  </si>
-  <si>
-    <t>IT paper 2 - May June 2019.pdf</t>
-  </si>
-  <si>
-    <t>13MEqF8GV-dyW-sS5Fa7k-orAcIa6oTFb</t>
-  </si>
-  <si>
-    <t>P1 and Alternative Paper Jan 2010.doc</t>
-  </si>
-  <si>
-    <t>1hQiOLqiuENtbdFnXTdI2FP5bNuzxJR3b</t>
-  </si>
-  <si>
-    <t>June 2018 P2.pdf</t>
-  </si>
-  <si>
-    <t>1KDxjXg_iT3HmjFca9d0evp2gyIEywby-</t>
   </si>
   <si>
     <t>1993-2003 Solutions.pdf</t>
@@ -897,6 +945,70 @@
         <v>89</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
